--- a/Traduzido/PTBR/Lang/PTBR/Game/Floor.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Floor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006E2558-EBE5-4AA6-B8C0-2FE0A89535CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85495CBA-719F-4D2B-84DF-F8C70A5B3E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="284">
   <si>
     <t>id</t>
   </si>
@@ -745,127 +745,136 @@
     <t>Beta 22.57</t>
   </si>
   <si>
-    <t>chão de solo sólido</t>
-  </si>
-  <si>
-    <t>campo</t>
-  </si>
-  <si>
-    <t>chão de tábua</t>
-  </si>
-  <si>
-    <t>chão de pedra</t>
-  </si>
-  <si>
-    <t>tapete</t>
-  </si>
-  <si>
-    <t>chão de suporte</t>
-  </si>
-  <si>
-    <t>chão de vidro</t>
-  </si>
-  <si>
-    <t>chão de espelho</t>
-  </si>
-  <si>
-    <t>chão de metal enferrujado</t>
-  </si>
-  <si>
-    <t>chão de metal</t>
-  </si>
-  <si>
-    <t>chão de tronco</t>
-  </si>
-  <si>
-    <t>chão de cristal</t>
-  </si>
-  <si>
-    <t>chão de azulejo</t>
-  </si>
-  <si>
-    <t>chão de tijolos</t>
-  </si>
-  <si>
-    <t>chão de areia</t>
-  </si>
-  <si>
-    <t>chão de grama</t>
-  </si>
-  <si>
-    <t>chão de grama espessa</t>
-  </si>
-  <si>
-    <t>chão de palha</t>
-  </si>
-  <si>
-    <t>chão de solo liso</t>
-  </si>
-  <si>
-    <t>chão de gelo</t>
-  </si>
-  <si>
-    <t>chão de neve</t>
-  </si>
-  <si>
-    <t>chão de terra</t>
-  </si>
-  <si>
-    <t>chão de madeira</t>
-  </si>
-  <si>
-    <t>chão de grama densa</t>
-  </si>
-  <si>
-    <t>água</t>
-  </si>
-  <si>
-    <t>água rasa</t>
-  </si>
-  <si>
-    <t>chão de cinzas</t>
-  </si>
-  <si>
-    <t>chão moderno</t>
-  </si>
-  <si>
-    <t>águas profundas</t>
-  </si>
-  <si>
-    <t>águas muito rasas</t>
-  </si>
-  <si>
-    <t>chão de tábua de qualidade</t>
-  </si>
-  <si>
     <t>Editor Floor(Transparente)</t>
   </si>
   <si>
-    <t>tapete moderno</t>
-  </si>
-  <si>
-    <t>chão com padrão de tábua</t>
-  </si>
-  <si>
     <t>Editor Floor(Céu)</t>
   </si>
   <si>
-    <t>chão de grelha de madeira</t>
-  </si>
-  <si>
-    <t>chão de grelha de metal</t>
-  </si>
-  <si>
-    <t>chão de caverna</t>
-  </si>
-  <si>
-    <t>chão de solo estéril</t>
-  </si>
-  <si>
-    <t>ponte</t>
-  </si>
-  <si>
-    <t>chão de arbusto</t>
+    <t>Piso do Editor (Interior)</t>
+  </si>
+  <si>
+    <t>Piso do Editor (Exterior)</t>
+  </si>
+  <si>
+    <t>Campo</t>
+  </si>
+  <si>
+    <t>Tapete</t>
+  </si>
+  <si>
+    <t>Magma</t>
+  </si>
+  <si>
+    <t>Água</t>
+  </si>
+  <si>
+    <t>Água Rasa</t>
+  </si>
+  <si>
+    <t>Pedestal</t>
+  </si>
+  <si>
+    <t>Águas Profundas</t>
+  </si>
+  <si>
+    <t>Águas Muito Rasas</t>
+  </si>
+  <si>
+    <t>Tapete Moderno</t>
+  </si>
+  <si>
+    <t>Ponte</t>
+  </si>
+  <si>
+    <t>Piso de Solo Sólido</t>
+  </si>
+  <si>
+    <t>Piso de Tábua</t>
+  </si>
+  <si>
+    <t>Piso de Pedra</t>
+  </si>
+  <si>
+    <t>Piso de Suporte</t>
+  </si>
+  <si>
+    <t>Piso de Vidro</t>
+  </si>
+  <si>
+    <t>Piso de Espelho</t>
+  </si>
+  <si>
+    <t>Piso de Metal Enferrujado</t>
+  </si>
+  <si>
+    <t>Piso de Metal</t>
+  </si>
+  <si>
+    <t>Piso de Cristal</t>
+  </si>
+  <si>
+    <t>Piso de Azulejo</t>
+  </si>
+  <si>
+    <t>Piso de Tijolos</t>
+  </si>
+  <si>
+    <t>Piso de Areia</t>
+  </si>
+  <si>
+    <t>Piso de Grama</t>
+  </si>
+  <si>
+    <t>Piso de Grama Espessa</t>
+  </si>
+  <si>
+    <t>Piso de Palha</t>
+  </si>
+  <si>
+    <t>Piso de Solo Liso</t>
+  </si>
+  <si>
+    <t>Piso de Gelo</t>
+  </si>
+  <si>
+    <t>Piso de Neve</t>
+  </si>
+  <si>
+    <t>Piso de Terra</t>
+  </si>
+  <si>
+    <t>Piso de Madeira</t>
+  </si>
+  <si>
+    <t>Piso de Grama Densa</t>
+  </si>
+  <si>
+    <t>Piso de Cinzas</t>
+  </si>
+  <si>
+    <t>Piso Moderno</t>
+  </si>
+  <si>
+    <t>Piso de Tábua de Qualidade</t>
+  </si>
+  <si>
+    <t>Piso com Padrão de Tábua</t>
+  </si>
+  <si>
+    <t>Piso de Grelha de Madeira</t>
+  </si>
+  <si>
+    <t>Piso de Grelha de Metal</t>
+  </si>
+  <si>
+    <t>Piso de Caverna</t>
+  </si>
+  <si>
+    <t>Piso de Solo Estéril</t>
+  </si>
+  <si>
+    <t>Piso de Arbusto</t>
   </si>
 </sst>
 </file>
@@ -1246,8 +1255,8 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101:C123"/>
+      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1308,7 @@
         <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1316,7 +1325,7 @@
         <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1333,7 +1342,7 @@
         <v>225</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1350,7 +1359,7 @@
         <v>225</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1367,7 +1376,7 @@
         <v>225</v>
       </c>
       <c r="C8" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -1384,7 +1393,7 @@
         <v>225</v>
       </c>
       <c r="C9" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -1401,7 +1410,7 @@
         <v>225</v>
       </c>
       <c r="C10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -1418,7 +1427,7 @@
         <v>225</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
@@ -1435,7 +1444,7 @@
         <v>225</v>
       </c>
       <c r="C12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
@@ -1452,7 +1461,7 @@
         <v>225</v>
       </c>
       <c r="C13" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -1469,7 +1478,7 @@
         <v>225</v>
       </c>
       <c r="C14" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D14" t="s">
         <v>36</v>
@@ -1486,7 +1495,7 @@
         <v>225</v>
       </c>
       <c r="C15" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
@@ -1503,7 +1512,7 @@
         <v>225</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
@@ -1520,7 +1529,7 @@
         <v>225</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
@@ -1537,7 +1546,7 @@
         <v>225</v>
       </c>
       <c r="C18" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
@@ -1554,7 +1563,7 @@
         <v>225</v>
       </c>
       <c r="C19" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1571,7 +1580,7 @@
         <v>225</v>
       </c>
       <c r="C20" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
@@ -1588,7 +1597,7 @@
         <v>225</v>
       </c>
       <c r="C21" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D21" t="s">
         <v>49</v>
@@ -1605,7 +1614,7 @@
         <v>225</v>
       </c>
       <c r="C22" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -1622,7 +1631,7 @@
         <v>225</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
@@ -1639,7 +1648,7 @@
         <v>225</v>
       </c>
       <c r="C24" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D24" t="s">
         <v>56</v>
@@ -1656,7 +1665,7 @@
         <v>225</v>
       </c>
       <c r="C25" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D25" t="s">
         <v>59</v>
@@ -1673,7 +1682,7 @@
         <v>225</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D26" t="s">
         <v>62</v>
@@ -1690,7 +1699,7 @@
         <v>225</v>
       </c>
       <c r="C27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
@@ -1707,7 +1716,7 @@
         <v>225</v>
       </c>
       <c r="C28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D28" t="s">
         <v>28</v>
@@ -1724,7 +1733,7 @@
         <v>225</v>
       </c>
       <c r="C29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
@@ -1741,7 +1750,7 @@
         <v>225</v>
       </c>
       <c r="C30" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D30" t="s">
         <v>68</v>
@@ -1758,7 +1767,7 @@
         <v>225</v>
       </c>
       <c r="C31" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
@@ -1775,7 +1784,7 @@
         <v>225</v>
       </c>
       <c r="C32" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
@@ -1792,7 +1801,7 @@
         <v>225</v>
       </c>
       <c r="C33" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="D33" t="s">
         <v>73</v>
@@ -1809,7 +1818,7 @@
         <v>225</v>
       </c>
       <c r="C34" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -1826,7 +1835,7 @@
         <v>225</v>
       </c>
       <c r="C35" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
@@ -1843,7 +1852,7 @@
         <v>225</v>
       </c>
       <c r="C36" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="D36" t="s">
         <v>73</v>
@@ -1860,7 +1869,7 @@
         <v>226</v>
       </c>
       <c r="C37" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D37" t="s">
         <v>80</v>
@@ -1877,7 +1886,7 @@
         <v>225</v>
       </c>
       <c r="C38" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D38" t="s">
         <v>83</v>
@@ -1894,7 +1903,7 @@
         <v>226</v>
       </c>
       <c r="C39" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="D39" t="s">
         <v>86</v>
@@ -1911,7 +1920,7 @@
         <v>226</v>
       </c>
       <c r="C40" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D40" t="s">
         <v>89</v>
@@ -1928,7 +1937,7 @@
         <v>225</v>
       </c>
       <c r="C41" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D41" t="s">
         <v>92</v>
@@ -1945,7 +1954,7 @@
         <v>225</v>
       </c>
       <c r="C42" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D42" t="s">
         <v>95</v>
@@ -1962,7 +1971,7 @@
         <v>225</v>
       </c>
       <c r="C43" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D43" t="s">
         <v>98</v>
@@ -1979,7 +1988,7 @@
         <v>225</v>
       </c>
       <c r="C44" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D44" t="s">
         <v>101</v>
@@ -1996,7 +2005,7 @@
         <v>225</v>
       </c>
       <c r="C45" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D45" t="s">
         <v>104</v>
@@ -2013,7 +2022,7 @@
         <v>225</v>
       </c>
       <c r="C46" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="D46" t="s">
         <v>107</v>
@@ -2030,7 +2039,7 @@
         <v>225</v>
       </c>
       <c r="C47" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="D47" t="s">
         <v>110</v>
@@ -2047,7 +2056,7 @@
         <v>225</v>
       </c>
       <c r="C48" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D48" t="s">
         <v>101</v>
@@ -2064,7 +2073,7 @@
         <v>225</v>
       </c>
       <c r="C49" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -2081,7 +2090,7 @@
         <v>225</v>
       </c>
       <c r="C50" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
@@ -2098,7 +2107,7 @@
         <v>225</v>
       </c>
       <c r="C51" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D51" t="s">
         <v>68</v>
@@ -2115,7 +2124,7 @@
         <v>225</v>
       </c>
       <c r="C52" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D52" t="s">
         <v>118</v>
@@ -2132,7 +2141,7 @@
         <v>225</v>
       </c>
       <c r="C53" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="D53" t="s">
         <v>121</v>
@@ -2149,7 +2158,7 @@
         <v>225</v>
       </c>
       <c r="C54" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="D54" t="s">
         <v>121</v>
@@ -2166,7 +2175,7 @@
         <v>225</v>
       </c>
       <c r="C55" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D55" t="s">
         <v>25</v>
@@ -2183,7 +2192,7 @@
         <v>225</v>
       </c>
       <c r="C56" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D56" t="s">
         <v>25</v>
@@ -2200,7 +2209,7 @@
         <v>227</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="D57" t="s">
         <v>127</v>
@@ -2217,7 +2226,7 @@
         <v>225</v>
       </c>
       <c r="C58" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D58" t="s">
         <v>22</v>
@@ -2234,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="C59" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D59" t="s">
         <v>95</v>
@@ -2251,7 +2260,7 @@
         <v>225</v>
       </c>
       <c r="C60" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
@@ -2268,7 +2277,7 @@
         <v>225</v>
       </c>
       <c r="C61" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D61" t="s">
         <v>68</v>
@@ -2285,7 +2294,7 @@
         <v>225</v>
       </c>
       <c r="C62" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D62" t="s">
         <v>25</v>
@@ -2302,7 +2311,7 @@
         <v>225</v>
       </c>
       <c r="C63" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D63" t="s">
         <v>28</v>
@@ -2319,7 +2328,7 @@
         <v>225</v>
       </c>
       <c r="C64" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D64" t="s">
         <v>25</v>
@@ -2336,7 +2345,7 @@
         <v>225</v>
       </c>
       <c r="C65" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D65" t="s">
         <v>28</v>
@@ -2353,7 +2362,7 @@
         <v>225</v>
       </c>
       <c r="C66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D66" t="s">
         <v>28</v>
@@ -2370,7 +2379,7 @@
         <v>225</v>
       </c>
       <c r="C67" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D67" t="s">
         <v>25</v>
@@ -2387,7 +2396,7 @@
         <v>225</v>
       </c>
       <c r="C68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D68" t="s">
         <v>28</v>
@@ -2404,7 +2413,7 @@
         <v>225</v>
       </c>
       <c r="C69" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D69" t="s">
         <v>62</v>
@@ -2421,7 +2430,7 @@
         <v>225</v>
       </c>
       <c r="C70" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D70" t="s">
         <v>62</v>
@@ -2438,7 +2447,7 @@
         <v>225</v>
       </c>
       <c r="C71" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D71" t="s">
         <v>62</v>
@@ -2455,7 +2464,7 @@
         <v>225</v>
       </c>
       <c r="C72" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D72" t="s">
         <v>62</v>
@@ -2472,7 +2481,7 @@
         <v>225</v>
       </c>
       <c r="C73" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D73" t="s">
         <v>62</v>
@@ -2489,7 +2498,7 @@
         <v>225</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D74" t="s">
         <v>62</v>
@@ -2506,7 +2515,7 @@
         <v>225</v>
       </c>
       <c r="C75" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="D75" t="s">
         <v>147</v>
@@ -2523,7 +2532,7 @@
         <v>225</v>
       </c>
       <c r="C76" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="D76" t="s">
         <v>150</v>
@@ -2540,7 +2549,7 @@
         <v>228</v>
       </c>
       <c r="C77" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="D77" t="s">
         <v>73</v>
@@ -2557,7 +2566,7 @@
         <v>226</v>
       </c>
       <c r="C78" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D78" t="s">
         <v>154</v>
@@ -2574,7 +2583,7 @@
         <v>226</v>
       </c>
       <c r="C79" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D79" t="s">
         <v>157</v>
@@ -2591,7 +2600,7 @@
         <v>229</v>
       </c>
       <c r="C80" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="D80" t="s">
         <v>160</v>
@@ -2608,7 +2617,7 @@
         <v>226</v>
       </c>
       <c r="C81" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="D81" t="s">
         <v>163</v>
@@ -2625,7 +2634,7 @@
         <v>226</v>
       </c>
       <c r="C82" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="D82" t="s">
         <v>163</v>
@@ -2642,7 +2651,7 @@
         <v>226</v>
       </c>
       <c r="C83" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="D83" t="s">
         <v>163</v>
@@ -2659,7 +2668,7 @@
         <v>226</v>
       </c>
       <c r="C84" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="D84" t="s">
         <v>163</v>
@@ -2676,7 +2685,7 @@
         <v>226</v>
       </c>
       <c r="C85" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D85" t="s">
         <v>169</v>
@@ -2693,7 +2702,7 @@
         <v>229</v>
       </c>
       <c r="C86" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D86" t="s">
         <v>169</v>
@@ -2710,7 +2719,7 @@
         <v>229</v>
       </c>
       <c r="C87" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D87" t="s">
         <v>169</v>
@@ -2727,7 +2736,7 @@
         <v>229</v>
       </c>
       <c r="C88" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D88" t="s">
         <v>169</v>
@@ -2744,7 +2753,7 @@
         <v>229</v>
       </c>
       <c r="C89" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D89" t="s">
         <v>169</v>
@@ -2761,7 +2770,7 @@
         <v>229</v>
       </c>
       <c r="C90" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D90" t="s">
         <v>169</v>
@@ -2778,7 +2787,7 @@
         <v>229</v>
       </c>
       <c r="C91" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D91" t="s">
         <v>169</v>
@@ -2795,7 +2804,7 @@
         <v>230</v>
       </c>
       <c r="C92" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D92" t="s">
         <v>169</v>
@@ -2812,7 +2821,7 @@
         <v>230</v>
       </c>
       <c r="C93" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="D93" t="s">
         <v>179</v>
@@ -2829,7 +2838,7 @@
         <v>230</v>
       </c>
       <c r="C94" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D94" t="s">
         <v>62</v>
@@ -2846,7 +2855,7 @@
         <v>226</v>
       </c>
       <c r="C95" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="D95" t="s">
         <v>163</v>
@@ -2880,7 +2889,7 @@
         <v>226</v>
       </c>
       <c r="C97" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D97" t="s">
         <v>187</v>
@@ -2897,7 +2906,7 @@
         <v>226</v>
       </c>
       <c r="C98" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D98" t="s">
         <v>187</v>
@@ -2914,7 +2923,7 @@
         <v>226</v>
       </c>
       <c r="C99" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D99" t="s">
         <v>191</v>
@@ -2931,7 +2940,7 @@
         <v>231</v>
       </c>
       <c r="C100" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D100" t="s">
         <v>191</v>
@@ -2965,7 +2974,7 @@
         <v>233</v>
       </c>
       <c r="C102" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D102" t="s">
         <v>196</v>
@@ -2982,7 +2991,7 @@
         <v>233</v>
       </c>
       <c r="C103" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D103" t="s">
         <v>199</v>
@@ -2999,7 +3008,7 @@
         <v>233</v>
       </c>
       <c r="C104" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D104" t="s">
         <v>154</v>
@@ -3016,7 +3025,7 @@
         <v>233</v>
       </c>
       <c r="C105" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D105" t="s">
         <v>68</v>
@@ -3033,7 +3042,7 @@
         <v>233</v>
       </c>
       <c r="C106" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D106" t="s">
         <v>68</v>
@@ -3050,7 +3059,7 @@
         <v>227</v>
       </c>
       <c r="C107" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="D107" t="s">
         <v>127</v>
@@ -3067,7 +3076,7 @@
         <v>234</v>
       </c>
       <c r="C108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D108" t="s">
         <v>28</v>
@@ -3084,7 +3093,7 @@
         <v>235</v>
       </c>
       <c r="C109" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D109" t="s">
         <v>25</v>
@@ -3101,7 +3110,7 @@
         <v>235</v>
       </c>
       <c r="C110" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D110" t="s">
         <v>62</v>
@@ -3118,7 +3127,7 @@
         <v>236</v>
       </c>
       <c r="C111" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D111" t="s">
         <v>25</v>
@@ -3135,7 +3144,7 @@
         <v>236</v>
       </c>
       <c r="C112" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D112" t="s">
         <v>25</v>
@@ -3152,7 +3161,7 @@
         <v>236</v>
       </c>
       <c r="C113" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D113" t="s">
         <v>62</v>
@@ -3169,7 +3178,7 @@
         <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D114" t="s">
         <v>62</v>
@@ -3186,7 +3195,7 @@
         <v>236</v>
       </c>
       <c r="C115" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="D115" t="s">
         <v>213</v>
@@ -3203,7 +3212,7 @@
         <v>237</v>
       </c>
       <c r="C116" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D116" t="s">
         <v>216</v>
@@ -3220,7 +3229,7 @@
         <v>238</v>
       </c>
       <c r="C117" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D117" t="s">
         <v>216</v>
@@ -3237,7 +3246,7 @@
         <v>238</v>
       </c>
       <c r="C118" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D118" t="s">
         <v>49</v>
@@ -3254,7 +3263,7 @@
         <v>238</v>
       </c>
       <c r="C119" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D119" t="s">
         <v>49</v>
@@ -3271,7 +3280,7 @@
         <v>239</v>
       </c>
       <c r="C120" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D120" t="s">
         <v>25</v>
@@ -3288,7 +3297,7 @@
         <v>239</v>
       </c>
       <c r="C121" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D121" t="s">
         <v>49</v>
@@ -3305,7 +3314,7 @@
         <v>239</v>
       </c>
       <c r="C122" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D122" t="s">
         <v>49</v>
@@ -3322,7 +3331,7 @@
         <v>239</v>
       </c>
       <c r="C123" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D123" t="s">
         <v>49</v>
